--- a/medicine/Psychotrope/Ožujsko/Ožujsko.xlsx
+++ b/medicine/Psychotrope/Ožujsko/Ožujsko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O%C5%BEujsko</t>
+          <t>Ožujsko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ožujsko est une bière lager croate produite par la brasserie Zagrebačka pivovara depuis 1892, rachetée en 1994 par Interbrew. Elle appartient, depuis 2013, au groupe Molson Coors. L'Ožujsko est la bière la plus consommée du pays.
  Portail de la bière   Portail de la Croatie                    </t>
